--- a/config_1.5/act_030_cwlb_config.xlsx
+++ b/config_1.5/act_030_cwlb_config.xlsx
@@ -411,57 +411,57 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>"2020万","抽奖券*30","双倍奖励*10",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","双倍奖励*5",</t>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","双倍奖励*3",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","双倍奖励*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","cwzp_icon_cjq","zpg_icon_yg",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","cwzp_icon_cjq","zpg_icon_shui",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","cwzp_icon_cjq","3dby_btn_jb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"5180万","抽奖券*50","双倍奖励*15",</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2020万","抽奖券*30","双倍奖励*10",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"990万","抽奖券*20","双倍奖励*5",</t>
-  </si>
-  <si>
-    <t>"483万","抽奖券*3","双倍奖励*3",</t>
-  </si>
-  <si>
-    <t>"200万","抽奖券*4","双倍奖励*2",</t>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","双倍奖励*1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y",""cwzp_icon_cjq","3dby_btn_jb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","cwzp_icon_cjq","zpg_icon_yg",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","cwzp_icon_cjq","zpg_icon_shui",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5180万","抽奖券*50","太阳*20",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2020万","抽奖券*30","太阳*10",</t>
-  </si>
-  <si>
-    <t>"990万","抽奖券*20","太阳*2",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"483万","抽奖券*3","水滴*6",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万","抽奖券*4","水滴*2",</t>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","水滴*1",</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1173,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1232,10 +1232,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1261,10 +1261,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1319,10 +1319,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1377,10 +1377,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1404,7 +1404,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1633,10 +1633,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1662,10 +1662,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1720,10 +1720,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1778,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>

--- a/config_1.5/act_030_cwlb_config.xlsx
+++ b/config_1.5/act_030_cwlb_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25740" windowHeight="11790" tabRatio="779" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25740" windowHeight="11790" tabRatio="779" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="65">
   <si>
     <t>line</t>
   </si>
@@ -403,10 +403,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">cwlb_icon_sw_1 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>华为P40</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -462,6 +458,22 @@
   </si>
   <si>
     <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwlb_icon_sw_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_2498y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1008,7 +1020,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1074,7 +1086,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -1108,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>18</v>
@@ -1128,7 +1140,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>20</v>
@@ -1148,10 +1160,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D7" s="8"/>
       <c r="F7" s="15">
@@ -1172,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1232,10 +1244,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1261,10 +1273,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1290,10 +1302,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1319,10 +1331,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1348,10 +1360,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1377,10 +1389,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1412,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1553,10 +1565,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D7" s="8"/>
       <c r="F7" s="15">
@@ -1633,10 +1645,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1662,10 +1674,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1691,10 +1703,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1720,10 +1732,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1749,10 +1761,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1778,10 +1790,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>

--- a/config_1.5/act_030_cwlb_config.xlsx
+++ b/config_1.5/act_030_cwlb_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25740" windowHeight="11790" tabRatio="779" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25740" windowHeight="11790" tabRatio="779" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t>line</t>
   </si>
@@ -403,10 +403,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">cwlb_icon_sw_1 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>华为P40</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -461,6 +457,14 @@
   </si>
   <si>
     <t>"5180万","抽奖券*50","双倍奖励*15",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwlb_icon_sw_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwlb_icon_sw_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1008,7 +1012,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1148,10 +1152,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D7" s="8"/>
       <c r="F7" s="15">
@@ -1172,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1232,10 +1236,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1261,10 +1265,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1290,10 +1294,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1319,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1348,10 +1352,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1377,10 +1381,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1412,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1553,10 +1557,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D7" s="8"/>
       <c r="F7" s="15">
@@ -1633,10 +1637,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1662,10 +1666,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1691,10 +1695,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1720,10 +1724,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1749,10 +1753,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1778,10 +1782,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
